--- a/bots/crawl_ch/output/bread_coop_2023-02-27.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O394"/>
+  <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Prix Garantie Toast 2.15 Schweizer Franken</t>
+          <t>Prix Garantie Toast - Online kein Bestand 2.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Sandwichtoast 20 Scheiben 2.30 Schweizer Franken</t>
+          <t>Sandwichtoast 20 Scheiben - Online kein Bestand 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6157,45 +6157,41 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6033606</t>
+          <t>3725524</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell</t>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6033606</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rund-ausgewallt-32cm/p/3725524</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6205,7 +6201,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6215,56 +6211,60 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell 2.60 Schweizer Franken</t>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3725524</t>
+          <t>6033606</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm</t>
+          <t>Naturaplan Bio Huusbrot hell</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rund-ausgewallt-32cm/p/3725524</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6033606</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6284,22 +6284,22 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Huusbrot hell 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6332,12 +6332,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2.07/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6362,13 +6362,13 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli 20% pro 2 Aktion 2.90 Schweizer Franken</t>
+          <t>Betty Bossi Butterpastetli 20% Aktion 2.30 Schweizer Franken statt 2.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7719,45 +7719,45 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3410120</t>
+          <t>6652747</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz</t>
+          <t>Oelz Dinkel Sandwich</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/krisprolls-vollkorn-schwedenbroetchen-nature-ohne-zuckerzusatz/p/3410120</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/oelz-dinkel-sandwich/p/6652747</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Oelz</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7777,60 +7777,60 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz 2.95 Schweizer Franken</t>
+          <t>Oelz Dinkel Sandwich 3.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3952561</t>
+          <t>3410120</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Harry Korn an Korn</t>
+          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/harry-korn-an-korn/p/3952561</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/krisprolls-vollkorn-schwedenbroetchen-nature-ohne-zuckerzusatz/p/3410120</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E104" t="n">
         <v>4.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Harry</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7850,56 +7850,60 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Harry Korn an Korn 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
+          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6652747</t>
+          <t>3952561</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Oelz Dinkel Sandwich</t>
+          <t>Harry Korn an Korn</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/oelz-dinkel-sandwich/p/6652747</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/harry-korn-an-korn/p/3952561</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Oelz</t>
+          <t>Harry</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7909,7 +7913,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7919,22 +7923,18 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Oelz Dinkel Sandwich 3.15 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Harry Korn an Korn 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9500,45 +9500,45 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>5688323</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E128" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9558,56 +9558,56 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5688323</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9627,18 +9627,18 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 2.95 Schweizer Franken</t>
+          <t>Bauli Croissant Apricot 6 Stück 20% Aktion 2.45 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11760,45 +11760,45 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6787088</t>
+          <t>5892883</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g</t>
+          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-street-market-corn-tortillas-glutenfrei-10-stueck/p/5892883</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E160" t="n">
         <v>4.5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11818,60 +11818,60 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
+          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>5892883</t>
+          <t>6787088</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück</t>
+          <t>Pastetli 6x30g</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-street-market-corn-tortillas-glutenfrei-10-stueck/p/5892883</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E161" t="n">
         <v>4.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11891,22 +11891,22 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Old El Paso Street Market Corn Tortillas glutenfrei 10 Stück 4.95 Schweizer Franken</t>
+          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12267,7 +12267,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13468,45 +13468,45 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E184" t="n">
         <v>4.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13526,60 +13526,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>5732887</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13589,7 +13585,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13599,60 +13595,60 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>5732887</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13662,7 +13658,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13672,56 +13668,60 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr"/>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -13741,18 +13741,18 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13890,7 +13890,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14531,45 +14531,45 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>6629227</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14589,22 +14589,18 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old el Paso Tortilla Pockets 8 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14677,45 +14673,45 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6629227</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E201" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14725,7 +14721,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14735,18 +14731,22 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr"/>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15744,45 +15744,45 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15802,56 +15802,56 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E217" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15871,18 +15871,18 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16653,28 +16653,28 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>6387363</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Karma Snack Mais Hülsenfrüchte</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16686,12 +16686,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16711,60 +16711,60 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16784,56 +16784,60 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E231" t="n">
         <v>4.5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16843,7 +16847,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16853,42 +16857,42 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6387363</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E232" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -16897,12 +16901,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16912,7 +16916,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16922,22 +16926,18 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17933,45 +17933,45 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E247" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17991,60 +17991,56 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18054,7 +18050,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18064,56 +18060,60 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr"/>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E249" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18133,22 +18133,22 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18294,45 +18294,45 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>4010866</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18352,56 +18352,56 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>4010866</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E253" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18421,56 +18421,56 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E254" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18480,7 +18480,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18490,56 +18490,56 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18559,56 +18559,60 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N255" t="inlineStr"/>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>['vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18618,7 +18622,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18628,22 +18632,18 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>['vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19146,45 +19146,45 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E264" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19194,7 +19194,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19204,56 +19204,56 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E265" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19273,60 +19273,56 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E266" t="n">
         <v>4.5</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19336,7 +19332,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19346,54 +19342,60 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20</v>
+      </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19403,7 +19405,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19418,51 +19420,49 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>33</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19472,7 +19472,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19482,56 +19482,56 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D269" t="n">
         <v>33</v>
       </c>
       <c r="E269" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19541,7 +19541,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19551,42 +19551,42 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E270" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -19595,12 +19595,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19610,7 +19610,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19620,18 +19620,18 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19698,7 +19698,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19907,7 +19907,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20254,7 +20254,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20327,28 +20327,28 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E281" t="n">
         <v>4.5</v>
@@ -20360,12 +20360,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20390,37 +20390,37 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -20429,12 +20429,12 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20444,7 +20444,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20454,39 +20454,39 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20498,12 +20498,12 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>0.77/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20513,7 +20513,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20523,56 +20523,56 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 2.30 Schweizer Franken</t>
+          <t>Panettone 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E284" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>0.77/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20582,7 +20582,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20592,56 +20592,56 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>Prix Garantie Aprikosen Tartelettes 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E285" t="n">
         <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20651,7 +20651,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20661,60 +20661,56 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6629585</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E286" t="n">
         <v>4.5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>1.91/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20724,7 +20720,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20734,39 +20730,43 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N286" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6629585</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Betty Bossi Marmor Cake</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E287" t="n">
         <v>4.5</v>
@@ -20778,12 +20778,12 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>1.91/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20808,13 +20808,13 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20883,45 +20883,45 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E289" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20941,56 +20941,60 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E290" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21000,7 +21004,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21010,22 +21014,18 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21094,45 +21094,45 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E292" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21152,60 +21152,60 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
+          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D293" t="n">
+        <v>10</v>
+      </c>
+      <c r="E293" t="n">
         <v>3</v>
       </c>
-      <c r="E293" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21225,60 +21225,56 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21288,7 +21284,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21298,18 +21294,22 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N294" t="inlineStr"/>
+          <t>Leisi Butter-Kuchenteig - Online kein Bestand 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22086,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22224,7 +22224,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22569,7 +22569,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22638,7 +22638,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22707,7 +22707,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23058,7 +23058,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23200,45 +23200,45 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23248,7 +23248,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23258,58 +23258,56 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>12</v>
+      </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23319,7 +23317,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23329,56 +23327,58 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23388,7 +23388,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23398,18 +23398,18 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23478,7 +23478,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23547,7 +23547,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23689,7 +23689,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24103,7 +24103,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24176,7 +24176,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24249,45 +24249,45 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E337" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24307,60 +24307,56 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D338" t="n">
+        <v>2</v>
+      </c>
+      <c r="E338" t="n">
         <v>4</v>
       </c>
-      <c r="E338" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24370,7 +24366,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24380,18 +24376,22 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24460,24 +24460,24 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -24488,17 +24488,17 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24508,7 +24508,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24518,35 +24518,35 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 40% ab 4 Aktion 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -24557,17 +24557,17 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24587,35 +24587,35 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -24626,17 +24626,17 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24646,7 +24646,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24656,18 +24656,18 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 40% ab 4 Aktion 1.75 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -24805,43 +24805,45 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24851,7 +24853,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24861,60 +24863,54 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 40% ab 4 Aktion 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
-        </is>
-      </c>
-      <c r="D346" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="E346" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24924,7 +24920,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24934,18 +24930,22 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Dar-Vida Nature 40% ab 4 Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25014,7 +25014,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25087,7 +25087,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25294,45 +25294,45 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E352" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25352,56 +25352,60 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E353" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25411,7 +25415,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25421,22 +25425,18 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25712,7 +25712,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25850,7 +25850,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26061,7 +26061,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26207,7 +26207,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26280,7 +26280,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26349,45 +26349,45 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26407,56 +26407,60 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E368" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26466,7 +26470,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26476,22 +26480,18 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26558,43 +26558,45 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26604,7 +26606,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26614,56 +26616,54 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D371" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
       <c r="E371" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26683,18 +26683,18 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26763,7 +26763,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26836,7 +26836,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -26909,31 +26909,31 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E375" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -26972,37 +26972,37 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -27041,13 +27041,13 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27116,7 +27116,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27185,7 +27185,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27254,7 +27254,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27325,7 +27325,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27392,7 +27392,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27459,7 +27459,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27528,7 +27528,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27599,31 +27599,29 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6677259</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
-        </is>
-      </c>
-      <c r="D385" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
       <c r="E385" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -27632,12 +27630,12 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>2.10/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27647,7 +27645,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27657,40 +27655,42 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Ostertaube 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6677259</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Ostertaube</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677259</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>3</v>
+      </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -27699,12 +27699,12 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>2.10/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27714,7 +27714,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27724,18 +27724,18 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Ostertaube 2.10 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27802,7 +27802,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27869,7 +27869,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -27936,7 +27936,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
@@ -28003,112 +28003,90 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6865009</t>
+          <t>7068603</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Délifrance Petits Panini 4 Stück</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-petits-panini-4-stueck/p/6865009</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/7068603</t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="n">
         <v>0</v>
       </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>Délifrance</t>
-        </is>
-      </c>
+      <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>1.28/100g</t>
-        </is>
-      </c>
-      <c r="I391" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Délifrance Petits Panini 4 Stück 20% ab 2 Aktion 3.20 Schweizer Franken</t>
+          <t>Butterzopf 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6865009</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Délifrance Petits Panini 4 Stück</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D392" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-petits-panini-4-stueck/p/6865009</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="E392" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28118,7 +28096,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28128,58 +28106,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N392" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Délifrance Petits Panini 4 Stück 20% ab 2 Aktion 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3735796</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>14</v>
+      </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Niederegger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28189,7 +28165,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28199,35 +28175,39 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N393" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3002037</t>
+          <t>3735796</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan</t>
+          <t>Niederegger Marzipan Vollmilchbrot</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-marzipan-vollmilchbrot/p/3735796</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
@@ -28271,13 +28251,80 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
+          <t>Niederegger Marzipan Vollmilchbrot 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-27 12:57:35</t>
+          <t>2023-02-27 20:49:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>3002037</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Niederegger Schwarzbrot Marzipan</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/niederegger-schwarzbrot-marzipan/p/3002037</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Niederegger</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>4.76/100g</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>Niederegger Schwarzbrot Marzipan 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>2023-02-27 20:49:25</t>
         </is>
       </c>
     </row>
